--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008997</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合A</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.51</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008998</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合C</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>78.51</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.77</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9785</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.1</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.77</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +1965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2041,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.38</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.1</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.77</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2277,14 +2364,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2293,14 +2402,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2440,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,281 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1261</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008997</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008998</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+      <c r="D8" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -741,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -792,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0529</t>
+          <t>1.9407</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -830,35 +694,301 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>001891</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -873,7 +1003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +1024,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -924,36 +1054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5294</t>
+          <t>1.9802</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -962,36 +1092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1697</t>
+          <t>1.9802</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1000,36 +1130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0554</t>
+          <t>1.3160</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1038,36 +1168,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0401</t>
+          <t>0.4996</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1076,36 +1206,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>001891</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1384,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1180,26 +1424,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4693</t>
+          <t>1.9785</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1208,36 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6974</t>
+          <t>0.5024</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1246,36 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2623</t>
+          <t>0.2565</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1284,36 +1528,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1954</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1322,36 +1566,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1360,36 +1604,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1408,26 +1652,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1446,26 +1690,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1744,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1540,26 +1784,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.87</t>
+          <t>34.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9785</t>
+          <t>1.4693</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1568,36 +1812,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5024</t>
+          <t>0.6974</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1606,36 +1850,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2565</t>
+          <t>0.2623</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1644,36 +1888,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1954</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1682,36 +1926,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1034</t>
+          <t>0.0646</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1720,36 +1964,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1768,26 +2012,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1806,26 +2050,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,7 +2104,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1890,36 +2134,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9802</t>
+          <t>0.5294</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1928,36 +2172,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9802</t>
+          <t>0.1697</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1966,36 +2210,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3160</t>
+          <t>0.0554</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2004,36 +2248,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4996</t>
+          <t>0.0401</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2042,150 +2286,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2213</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1574</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1114</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1114</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,7 +2350,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2250,36 +2380,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9407</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2288,301 +2418,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1432</t>
+          <t>0.0162</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4806</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1864</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1419</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1044</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0324</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2597,144 +2461,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.06</v>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.38</v>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.1</v>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.77</v>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.25</v>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4.06</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>6.38</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9407</t>
+          <t>1.4721</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1432</t>
+          <t>1.0679</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4806</t>
+          <t>0.4524</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1864</t>
+          <t>0.1955</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1044</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>62.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,26 +1081,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9802</t>
+          <t>1.9407</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1092,36 +1109,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9802</t>
+          <t>1.1432</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1130,36 +1147,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3160</t>
+          <t>0.4806</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1168,36 +1185,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4996</t>
+          <t>0.1864</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1206,32 +1223,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2213</t>
+          <t>0.1419</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1244,36 +1261,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.1044</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1282,32 +1299,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1114</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1320,36 +1337,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1114</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1424,26 +1479,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9785</t>
+          <t>1.9802</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1452,36 +1507,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5024</t>
+          <t>1.9802</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1490,36 +1545,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2565</t>
+          <t>1.3160</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1528,36 +1583,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.4996</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1566,32 +1621,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1034</t>
+          <t>0.2213</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1604,36 +1659,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1652,22 +1707,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.1114</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1680,32 +1735,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.1114</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1744,7 +1799,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1784,26 +1839,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4693</t>
+          <t>1.9785</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1812,36 +1867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6974</t>
+          <t>0.5024</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1850,36 +1905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2623</t>
+          <t>0.2565</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1888,36 +1943,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1954</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1926,36 +1981,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1964,36 +2019,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2012,26 +2067,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2050,26 +2105,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2078,6 +2133,366 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2323,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2455,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603108-润达医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.06</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>6.38</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.1</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,318 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +984,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.62</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4721</t>
+          <t>1.2612</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -721,12 +1022,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>19.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -736,7 +1037,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0679</t>
+          <t>1.0993</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,26 +1060,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4524</t>
+          <t>0.3329</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +1098,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1955</t>
+          <t>0.1405</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -835,12 +1136,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -850,7 +1151,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.0812</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -863,150 +1164,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>620002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金元顺安成长动力混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>62.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1081,26 +1268,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9407</t>
+          <t>1.4721</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1119,26 +1306,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1432</t>
+          <t>1.0679</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1157,26 +1344,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4806</t>
+          <t>0.4524</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1195,26 +1382,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1864</t>
+          <t>0.1955</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1233,26 +1420,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.1126</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1271,26 +1458,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1044</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1299,36 +1486,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1337,36 +1524,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1375,36 +1562,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>62.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,26 +1666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9802</t>
+          <t>1.9407</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1507,36 +1694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9802</t>
+          <t>1.1432</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1545,36 +1732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3160</t>
+          <t>0.4806</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1583,36 +1770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4996</t>
+          <t>0.1864</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1621,32 +1808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2213</t>
+          <t>0.1419</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1659,36 +1846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.1044</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1697,32 +1884,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1114</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1735,36 +1922,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1114</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1839,26 +2064,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9785</t>
+          <t>1.9802</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1867,36 +2092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5024</t>
+          <t>1.9802</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1905,36 +2130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2565</t>
+          <t>1.3160</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1943,36 +2168,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.4996</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1981,32 +2206,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1034</t>
+          <t>0.2213</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2019,36 +2244,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2067,22 +2292,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.1114</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2095,32 +2320,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.1114</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2159,7 +2384,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2199,26 +2424,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4693</t>
+          <t>1.9785</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2227,36 +2452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6974</t>
+          <t>0.5024</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2265,36 +2490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2623</t>
+          <t>0.2565</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2303,36 +2528,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1954</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2341,36 +2566,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2379,36 +2604,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2427,26 +2652,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2465,26 +2690,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2493,6 +2718,366 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2738,7 +3323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2868,288 +3453,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1261</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008997</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008998</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>同泰竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>